--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hab populations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>Location</t>
   </si>
@@ -353,6 +358,36 @@
       </rPr>
       <t>Official population figures are way off</t>
     </r>
+  </si>
+  <si>
+    <t>Meltwater</t>
+  </si>
+  <si>
+    <t>Ice business</t>
+  </si>
+  <si>
+    <t>EP Meltwater</t>
+  </si>
+  <si>
+    <t>HEL 8</t>
+  </si>
+  <si>
+    <t>S/SE of Burton Crater</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N/Korolev Crater</t>
+  </si>
+  <si>
+    <t>N/Littleton Crater</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>MAA</t>
   </si>
 </sst>
 </file>
@@ -736,7 +771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,14 +779,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -766,7 +801,7 @@
     <col min="14" max="14" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,14 +859,14 @@
         <v>0.4</v>
       </c>
       <c r="I2" s="10">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I30" si="0">G2*H2</f>
         <v>14800000</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -848,11 +883,11 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="10">
-        <f>G3*H3</f>
+        <f t="shared" si="0"/>
         <v>5850000</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -872,14 +907,14 @@
         <v>0.4</v>
       </c>
       <c r="I4" s="10">
-        <f>G4*H4</f>
+        <f t="shared" si="0"/>
         <v>3640000</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -902,16 +937,16 @@
         <v>0.25</v>
       </c>
       <c r="I5" s="10">
-        <f>G5*H5</f>
+        <f t="shared" si="0"/>
         <v>2125000</v>
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>72608300</v>
+        <v>72638300</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -934,11 +969,11 @@
         <v>0.25</v>
       </c>
       <c r="I6" s="10">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -961,7 +996,7 @@
         <v>0.35</v>
       </c>
       <c r="I7" s="10">
-        <f>G7*H7</f>
+        <f t="shared" si="0"/>
         <v>350000</v>
       </c>
       <c r="J7" t="s">
@@ -971,7 +1006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -991,15 +1026,15 @@
         <v>0.25</v>
       </c>
       <c r="I8" s="10">
-        <f>G8*H8</f>
+        <f t="shared" si="0"/>
         <v>87500</v>
       </c>
       <c r="L8" s="3">
         <f>SUM(I2:I124)</f>
-        <v>27954370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>27969370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1019,11 +1054,11 @@
         <v>0.45</v>
       </c>
       <c r="I9" s="10">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1046,14 +1081,14 @@
         <v>0.7</v>
       </c>
       <c r="I10" s="10">
-        <f>G10*H10</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -1077,7 +1112,7 @@
         <v>0.6</v>
       </c>
       <c r="I11" s="10">
-        <f>G11*H11</f>
+        <f t="shared" si="0"/>
         <v>54000</v>
       </c>
       <c r="J11"/>
@@ -1085,7 +1120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
@@ -1111,245 +1146,277 @@
         <v>0.6</v>
       </c>
       <c r="I12" s="10">
-        <f>G12*H12</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I13" s="10">
-        <f>G13*H13</f>
-        <v>13750.000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" s="3">
         <v>25000</v>
       </c>
       <c r="H14" s="7">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I14" s="10">
-        <f>G14*H14</f>
-        <v>16250</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>13750.000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="3">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="H15" s="7">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I15" s="10">
-        <f>G15*H15</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>16250</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16"/>
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H16" s="7">
         <v>0.3</v>
       </c>
       <c r="I16" s="10">
-        <f>G16*H16</f>
-        <v>2400</v>
-      </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H17" s="7">
         <v>0.3</v>
       </c>
       <c r="I17" s="10">
-        <f>G17*H17</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="H18" s="7">
         <v>0.3</v>
       </c>
       <c r="I18" s="10">
-        <f>G18*H18</f>
-        <v>1800</v>
-      </c>
-      <c r="M18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3">
         <v>6000</v>
       </c>
       <c r="H19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H20" s="7">
         <v>0.8</v>
       </c>
-      <c r="I19" s="10">
-        <f>G19*H19</f>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N19">
-        <f>COUNTIF(D2:D1001,"*D*")+COUNTIF(D2:D1001,"DD*")+COUNTIF(D2:D1001,"DDD")</f>
+      <c r="N20">
+        <f>COUNTIF(D3:D1002,"*D*")+COUNTIF(D3:D1002,"DD*")+COUNTIF(D3:D1002,"DDD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>5500</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>0.9</v>
       </c>
-      <c r="I20" s="10">
-        <f>G20*H20</f>
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
         <v>4950</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>13</v>
       </c>
-      <c r="N20">
-        <f>COUNTIF(D2:D101,"*X*")+COUNTIF(D2:D101,"XX*")+COUNTIF(D2:D1001,"XXX")</f>
+      <c r="N21">
+        <f>COUNTIF(D3:D102,"*X*")+COUNTIF(D3:D102,"XX*")+COUNTIF(D3:D1002,"XXX")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="10">
-        <f>G21*H21</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>28</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -1361,20 +1428,16 @@
         <v>0.3</v>
       </c>
       <c r="I22" s="10">
-        <f>G22*H22</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <f>COUNTIF(D2:D101,"*F*")+COUNTIF(D2:D101,"FF*")+COUNTIF(D2:D1001,"FFF")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1386,133 +1449,143 @@
         <v>0.3</v>
       </c>
       <c r="I23" s="10">
-        <f>G23*H23</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23">
-        <f>COUNTIF(D2:D101,"*R*")+COUNTIF(D2:D101,"RR*")+COUNTIF(D2:D1001,"RRR")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>32</v>
+        <f>COUNTIF(D3:D102,"*F*")+COUNTIF(D3:D102,"FF*")+COUNTIF(D3:D1002,"FFF")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
       </c>
       <c r="G24" s="3">
         <v>5000</v>
       </c>
       <c r="H24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <f>COUNTIF(D3:D102,"*R*")+COUNTIF(D3:D102,"RR*")+COUNTIF(D3:D1002,"RRR")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H25" s="7">
         <v>0.8</v>
       </c>
-      <c r="I24" s="10">
-        <f>G24*H24</f>
+      <c r="I25" s="10">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>0.1</v>
       </c>
-      <c r="I25" s="10">
-        <f>G25*H25</f>
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I26" s="10">
-        <f>G26*H26</f>
-        <v>800</v>
-      </c>
-      <c r="J26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <f>SUM(N19:N25)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
       </c>
       <c r="H27" s="7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="10">
-        <f>G27*H27</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N20:N26)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
@@ -1520,62 +1593,84 @@
         <v>102</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="7">
         <v>0.9</v>
       </c>
       <c r="I28" s="10">
-        <f>G28*H28</f>
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>900</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>700</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>0.7</v>
       </c>
-      <c r="I29" s="10">
-        <f>G29*H29</f>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
         <v>489.99999999999994</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J29">
-    <sortCondition descending="1" ref="G2:G29"/>
+  <sortState ref="A1:N30">
+    <sortCondition descending="1" ref="G1:G30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hab populations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>Location</t>
   </si>
@@ -333,9 +328,6 @@
   </si>
   <si>
     <t>SIR</t>
-  </si>
-  <si>
-    <t>ORB</t>
   </si>
   <si>
     <t>ASH</t>
@@ -388,6 +380,15 @@
   </si>
   <si>
     <t>MAA</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>ORB 1</t>
+  </si>
+  <si>
+    <t>ORB 2</t>
   </si>
 </sst>
 </file>
@@ -771,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,10 +784,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -801,7 +802,7 @@
     <col min="14" max="14" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -866,10 +867,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
@@ -887,7 +891,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -914,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -946,7 +950,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -973,7 +977,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>27969370</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>56</v>
@@ -1058,7 +1062,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
@@ -1150,18 +1154,18 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>4</v>
@@ -1177,10 +1181,10 @@
         <v>15000</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
@@ -1204,7 +1208,7 @@
         <v>13750.000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1212,10 +1216,10 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -1231,20 +1235,20 @@
         <v>16250</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -1267,12 +1271,12 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -1292,7 +1296,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1337,12 +1341,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -1374,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>71</v>
@@ -1411,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1432,12 +1436,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1463,12 +1467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
@@ -1494,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>32</v>
@@ -1518,7 +1522,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>71</v>
@@ -1606,7 +1610,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -1633,7 +1637,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1672,5 +1676,10 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
   <si>
     <t>Location</t>
   </si>
@@ -389,6 +389,105 @@
   </si>
   <si>
     <t>ORB 2</t>
+  </si>
+  <si>
+    <t>Tharsis TH</t>
+  </si>
+  <si>
+    <t>Valles Map</t>
+  </si>
+  <si>
+    <t>Terraforming hub</t>
+  </si>
+  <si>
+    <t>Eos TH</t>
+  </si>
+  <si>
+    <t>Eos Chasma</t>
+  </si>
+  <si>
+    <t>Mellas TH</t>
+  </si>
+  <si>
+    <t>Calaiâ</t>
+  </si>
+  <si>
+    <t>Melas Chasma</t>
+  </si>
+  <si>
+    <t>Aquatic uplifts</t>
+  </si>
+  <si>
+    <t>Fields of Steel</t>
+  </si>
+  <si>
+    <t>Solis Planum</t>
+  </si>
+  <si>
+    <t>Industrial town</t>
+  </si>
+  <si>
+    <t>Portmanteau</t>
+  </si>
+  <si>
+    <t>Hyblaeus</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>SW121</t>
+  </si>
+  <si>
+    <t>Base of Portmanteau Rangers</t>
+  </si>
+  <si>
+    <t>Langlac</t>
+  </si>
+  <si>
+    <t>Orcus Patera</t>
+  </si>
+  <si>
+    <t>Elysium Map</t>
+  </si>
+  <si>
+    <t>Former tourist destination</t>
+  </si>
+  <si>
+    <t>Cerberus Fossae</t>
+  </si>
+  <si>
+    <t>Economic outpost</t>
+  </si>
+  <si>
+    <t>Argoed</t>
+  </si>
+  <si>
+    <t>Utopia Plaintia</t>
+  </si>
+  <si>
+    <t>Former quarry, now growing hub</t>
+  </si>
+  <si>
+    <t>LL 1-2</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>UTO</t>
+  </si>
+  <si>
+    <t>Todor</t>
+  </si>
+  <si>
+    <t>Louros Valles</t>
+  </si>
+  <si>
+    <t>Railway Infra Town</t>
+  </si>
+  <si>
+    <t>Eos Rail, IWA</t>
   </si>
 </sst>
 </file>
@@ -772,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -860,7 +959,7 @@
         <v>0.4</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:I30" si="0">G2*H2</f>
+        <f t="shared" ref="I2:I40" si="0">G2*H2</f>
         <v>14800000</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -946,7 +1045,7 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>72638300</v>
+        <v>74403300</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1011,260 +1110,269 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>350000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>0.25</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>87500</v>
       </c>
-      <c r="L8" s="3">
-        <f>SUM(I2:I124)</f>
-        <v>27969370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>135000</v>
+      <c r="L9" s="3">
+        <f>SUM(I3:I125)</f>
+        <v>14054870</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="H10" s="7">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="0"/>
-        <v>84000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="H11" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-      <c r="J11"/>
-      <c r="L11" t="s">
-        <v>76</v>
-      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
+        <v>145</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3">
-        <v>30000</v>
+        <v>160000</v>
       </c>
       <c r="H12" s="7">
         <v>0.6</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>96000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="H13" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>84000</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>25000</v>
+        <v>130000</v>
       </c>
       <c r="H14" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>13750.000000000002</v>
+        <v>78000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>25000</v>
+        <v>120000</v>
       </c>
       <c r="H15" s="7">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="0"/>
-        <v>16250</v>
+        <v>84000</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="3">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="H16" s="7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>72000</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -1272,407 +1380,701 @@
       <c r="N16"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="A17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>47500</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3">
+        <v>90000</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>80000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="M19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="H20" s="7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <f>COUNTIF(D3:D1002,"*D*")+COUNTIF(D3:D1002,"DD*")+COUNTIF(D3:D1002,"DDD")</f>
-        <v>0</v>
+        <v>56000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
+        <v>127</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>117</v>
+      <c r="D21" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G21" s="3">
-        <v>5500</v>
+        <v>60000</v>
       </c>
       <c r="H21" s="7">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
-      </c>
-      <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <f>COUNTIF(D3:D102,"*X*")+COUNTIF(D3:D102,"XX*")+COUNTIF(D3:D1002,"XXX")</f>
-        <v>0</v>
+        <v>30000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>25</v>
+      <c r="A22" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>13750.000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G25" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="0"/>
+        <v>16250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="7">
         <v>0.3</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H27" s="7">
         <v>0.3</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <f>COUNTIF(D3:D102,"*F*")+COUNTIF(D3:D102,"FF*")+COUNTIF(D3:D1002,"FFF")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I27" s="10">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G28" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H28" s="7">
         <v>0.3</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <f>COUNTIF(D3:D102,"*R*")+COUNTIF(D3:D102,"RR*")+COUNTIF(D3:D1002,"RRR")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <f>SUM(N20:N26)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.9</v>
-      </c>
       <c r="I28" s="10">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="4" t="s">
-        <v>74</v>
+      <c r="A29" t="s">
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
       <c r="G29" s="3">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="H29" s="7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="0"/>
-        <v>810</v>
+        <v>1800</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30">
+        <f>COUNTIF(D13:D1012,"*D*")+COUNTIF(D13:D1012,"DD*")+COUNTIF(D13:D1012,"DDD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <f>COUNTIF(D13:D112,"*X*")+COUNTIF(D13:D112,"XX*")+COUNTIF(D13:D1012,"XXX")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <f>COUNTIF(D13:D112,"*F*")+COUNTIF(D13:D112,"FF*")+COUNTIF(D13:D1012,"FFF")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <f>COUNTIF(D13:D112,"*R*")+COUNTIF(D13:D112,"RR*")+COUNTIF(D13:D1012,"RRR")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G36" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <f>SUM(N30:N36)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>900</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="5">
         <v>700</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H40" s="8">
         <v>0.7</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="0"/>
         <v>489.99999999999994</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:N30">
-    <sortCondition descending="1" ref="G1:G30"/>
+  <sortState ref="A1:N40">
+    <sortCondition descending="1" ref="G1:G40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
   <si>
     <t>Location</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Eos Rail, IWA</t>
+  </si>
+  <si>
+    <t>Triolet Community</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,11 +882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -959,7 +962,7 @@
         <v>0.4</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:I40" si="0">G2*H2</f>
+        <f>G2*H2</f>
         <v>14800000</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -986,7 +989,7 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I41" si="0">G3*H3</f>
         <v>5850000</v>
       </c>
     </row>
@@ -1045,7 +1048,7 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74403300</v>
+        <v>74403450</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1167,7 +1170,7 @@
       </c>
       <c r="L9" s="3">
         <f>SUM(I3:I125)</f>
-        <v>14054870</v>
+        <v>14054907.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1897,7 +1900,7 @@
       </c>
       <c r="N34">
         <f>COUNTIF(D13:D112,"*R*")+COUNTIF(D13:D112,"RR*")+COUNTIF(D13:D1012,"RRR")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1979,7 +1982,7 @@
       </c>
       <c r="N37">
         <f>SUM(N30:N36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2069,6 +2072,39 @@
         <v>489.99999999999994</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>150</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="J41" t="s">
         <v>35</v>
       </c>
     </row>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="28800" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hab populations" sheetId="2" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74403450</v>
+        <v>74423450</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="L9" s="3">
         <f>SUM(I3:I125)</f>
-        <v>14054907.5</v>
+        <v>14056907.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1555,14 +1555,14 @@
         <v>81</v>
       </c>
       <c r="G22" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H22" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:14">

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="28800" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hab populations" sheetId="2" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,8 +885,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,28 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2EDD1-EE16-7049-A37F-7F2221658DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hab populations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
   <si>
     <t>Location</t>
   </si>
@@ -492,11 +509,26 @@
   <si>
     <t>Triolet Community</t>
   </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Haunting Mars</t>
+  </si>
+  <si>
+    <t>HEL 11</t>
+  </si>
+  <si>
+    <t>Fa Jing (formerly TTO)</t>
+  </si>
+  <si>
+    <t>Taken over by Faa Jing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -570,18 +602,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -874,22 +902,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -898,13 +926,13 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -926,10 +954,10 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -939,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -958,10 +986,10 @@
       <c r="G2" s="2">
         <v>37000000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>0.4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2">
         <f>G2*H2</f>
         <v>14800000</v>
       </c>
@@ -969,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -985,15 +1013,15 @@
       <c r="G3" s="3">
         <v>13000000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>0.45</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I41" si="0">G3*H3</f>
+      <c r="I3">
+        <f>G3*H3</f>
         <v>5850000</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1009,19 +1037,19 @@
       <c r="G4" s="3">
         <v>9100000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>0.4</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" si="0"/>
+      <c r="I4">
+        <f>G4*H4</f>
         <v>3640000</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
@@ -1033,27 +1061,27 @@
       <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="3">
         <v>8500000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>0.25</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="0"/>
+      <c r="I5">
+        <f>G5*H5</f>
         <v>2125000</v>
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74423450</v>
+        <v>74424950</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
@@ -1065,21 +1093,21 @@
       <c r="E6" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3">
         <v>3000000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0.25</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="0"/>
+      <c r="I6">
+        <f>G6*H6</f>
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1098,11 +1126,11 @@
       <c r="G7" s="3">
         <v>1000000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0.35</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="0"/>
+      <c r="I7">
+        <f>G7*H7</f>
         <v>350000</v>
       </c>
       <c r="J7" t="s">
@@ -1112,40 +1140,40 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="3">
         <v>600000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>0.5</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="0"/>
+      <c r="I8">
+        <f>G8*H8</f>
         <v>300000</v>
       </c>
       <c r="J8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1161,20 +1189,20 @@
       <c r="G9" s="3">
         <v>350000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>0.25</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
+      <c r="I9">
+        <f>G9*H9</f>
         <v>87500</v>
       </c>
       <c r="L9" s="3">
         <f>SUM(I3:I125)</f>
-        <v>14056907.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
+        <v>14057507.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
@@ -1183,43 +1211,43 @@
       <c r="E10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="3">
         <v>300000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>0.45</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="0"/>
+      <c r="I10">
+        <f>G10*H10</f>
         <v>135000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>125</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>119</v>
       </c>
       <c r="E11"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="3">
         <v>300000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>0.3</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
+      <c r="I11">
+        <f>G11*H11</f>
         <v>90000</v>
       </c>
       <c r="J11" t="s">
@@ -1230,95 +1258,95 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="3">
         <v>160000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>0.6</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="0"/>
+      <c r="I12">
+        <f>G12*H12</f>
         <v>96000</v>
       </c>
       <c r="J12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="3">
         <v>140000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>0.6</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f>G13*H13</f>
         <v>84000</v>
       </c>
       <c r="J13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>130000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>0.6</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f>G14*H14</f>
         <v>78000</v>
       </c>
       <c r="J14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
@@ -1330,90 +1358,85 @@
       <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>120000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>0.7</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f>G15*H15</f>
         <v>84000</v>
       </c>
       <c r="J15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>119</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="3">
         <v>120000</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>0.6</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="0"/>
+      <c r="I16">
+        <f>G16*H16</f>
         <v>72000</v>
       </c>
       <c r="J16" t="s">
         <v>149</v>
       </c>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3">
         <v>95000</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>0.5</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f>G17*H17</f>
         <v>47500</v>
       </c>
       <c r="J17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
@@ -1425,17 +1448,17 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="3">
         <v>90000</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>0.6</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="0"/>
+      <c r="I18">
+        <f>G18*H18</f>
         <v>54000</v>
       </c>
       <c r="K18" s="1"/>
@@ -1445,98 +1468,98 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="3">
         <v>80000</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <v>0.4</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
+      <c r="I19">
+        <f>G19*H19</f>
         <v>32000</v>
       </c>
       <c r="J19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="3">
         <v>80000</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>0.7</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="0"/>
+      <c r="I20">
+        <f>G20*H20</f>
         <v>56000</v>
       </c>
       <c r="J20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="3">
         <v>60000</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>0.5</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="0"/>
+      <c r="I21">
+        <f>G21*H21</f>
         <v>30000</v>
       </c>
       <c r="J21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
@@ -1551,75 +1574,75 @@
       <c r="E22" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>0.4</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="0"/>
+      <c r="I22">
+        <f>G22*H22</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="3">
         <v>30000</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>0.5</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="0"/>
+      <c r="I23">
+        <f>G23*H23</f>
         <v>15000</v>
       </c>
       <c r="J23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>25000</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
+      <c r="I24">
+        <f>G24*H24</f>
         <v>13750.000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1638,18 +1661,18 @@
       <c r="G25" s="3">
         <v>25000</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>0.65</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" si="0"/>
+      <c r="I25">
+        <f>G25*H25</f>
         <v>16250</v>
       </c>
       <c r="J25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1665,18 +1688,18 @@
       <c r="G26" s="3">
         <v>10000</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>0.3</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="0"/>
+      <c r="I26">
+        <f>G26*H26</f>
         <v>3000</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1689,19 +1712,15 @@
       <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>0.3</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="0"/>
+      <c r="I27">
+        <f>G27*H27</f>
         <v>2400</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1714,15 +1733,15 @@
       <c r="G28" s="3">
         <v>7500</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>0.3</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="0"/>
+      <c r="I28">
+        <f>G28*H28</f>
         <v>2250</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -1735,18 +1754,18 @@
       <c r="G29" s="3">
         <v>6000</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>0.3</v>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="0"/>
+      <c r="I29">
+        <f>G29*H29</f>
         <v>1800</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1768,11 +1787,11 @@
       <c r="G30" s="3">
         <v>6000</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>0.8</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="0"/>
+      <c r="I30">
+        <f>G30*H30</f>
         <v>4800</v>
       </c>
       <c r="M30" t="s">
@@ -1783,8 +1802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>67</v>
       </c>
       <c r="B31" t="s">
@@ -1799,17 +1818,17 @@
       <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="3">
         <v>5500</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>0.9</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="0"/>
+      <c r="I31">
+        <f>G31*H31</f>
         <v>4950</v>
       </c>
       <c r="M31" t="s">
@@ -1820,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1833,15 +1852,15 @@
       <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>0.3</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="0"/>
+      <c r="I32">
+        <f>G32*H32</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1854,11 +1873,11 @@
       <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>0.3</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="0"/>
+      <c r="I33">
+        <f>G33*H33</f>
         <v>1500</v>
       </c>
       <c r="J33" t="s">
@@ -1872,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1885,11 +1904,11 @@
       <c r="G34" s="3">
         <v>5000</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="5">
         <v>0.3</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="0"/>
+      <c r="I34">
+        <f>G34*H34</f>
         <v>1500</v>
       </c>
       <c r="J34" t="s">
@@ -1900,11 +1919,11 @@
       </c>
       <c r="N34">
         <f>COUNTIF(D13:D112,"*R*")+COUNTIF(D13:D112,"RR*")+COUNTIF(D13:D1012,"RRR")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="C35" t="s">
@@ -1913,22 +1932,22 @@
       <c r="E35" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>0.8</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="0"/>
+      <c r="I35">
+        <f>G35*H35</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -1940,177 +1959,210 @@
       <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="3">
         <v>1700</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="5">
         <v>0.1</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="0"/>
+      <c r="I36">
+        <f>G36*H36</f>
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I37">
+        <f>G37*H37</f>
+        <v>600</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" t="s">
         <v>8</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I37" s="10">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37">
-        <f>SUM(N30:N36)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G38" s="3">
         <v>1000</v>
       </c>
-      <c r="H38" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I38" s="10">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="4" t="s">
-        <v>74</v>
+      <c r="H38" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I38">
+        <f>G38*H38</f>
+        <v>800</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <f>SUM(N31:N37)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
       </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" t="s">
         <v>70</v>
       </c>
       <c r="E39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I39">
+        <f>G39*H39</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="3">
         <v>900</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H40" s="5">
         <v>0.9</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="0"/>
+      <c r="I40">
+        <f>G40*H40</f>
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="5">
         <v>0.7</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="0"/>
+      <c r="I41">
+        <f>G41*H41</f>
         <v>489.99999999999994</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
-        <v>150</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="I41" s="10">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
       </c>
       <c r="J41" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>150</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I42">
+        <f>G42*H42</f>
+        <v>37.5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:N40">
-    <sortCondition descending="1" ref="G1:G40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N42">
+    <sortCondition descending="1" ref="G1:G42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F2EDD1-EE16-7049-A37F-7F2221658DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB3095-37C8-9044-9890-24BCC0D94B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
   <si>
     <t>Location</t>
   </si>
@@ -523,6 +523,24 @@
   </si>
   <si>
     <t>Taken over by Faa Jing</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>Orbital infrastructure ops</t>
+  </si>
+  <si>
+    <t>Gavaswadi</t>
+  </si>
+  <si>
+    <t>Piros Lyuk</t>
+  </si>
+  <si>
+    <t>S/</t>
+  </si>
+  <si>
+    <t>Self-sufficient terraforming camp</t>
   </si>
 </sst>
 </file>
@@ -910,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,7 +940,7 @@
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1076,7 +1094,7 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74424950</v>
+        <v>74428550</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1198,7 +1216,7 @@
       </c>
       <c r="L9" s="3">
         <f>SUM(I3:I125)</f>
-        <v>14057507.5</v>
+        <v>14058167.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1919,7 +1937,7 @@
       </c>
       <c r="N34">
         <f>COUNTIF(D13:D112,"*R*")+COUNTIF(D13:D112,"RR*")+COUNTIF(D13:D1012,"RRR")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -1948,132 +1966,138 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G36" s="3">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="H36" s="5">
         <v>0.1</v>
       </c>
       <c r="I36">
         <f>G36*H36</f>
-        <v>170</v>
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H37" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I37">
         <f>G37*H37</f>
-        <v>600</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H38" s="5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I38">
         <f>G38*H38</f>
-        <v>800</v>
-      </c>
-      <c r="J38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38">
-        <f>SUM(N31:N37)</f>
-        <v>7</v>
+        <v>600</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
         <v>1000</v>
       </c>
       <c r="H39" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I39">
         <f>G39*H39</f>
-        <v>900</v>
+        <v>800</v>
+      </c>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <f>SUM(N32:N38)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
       </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
       <c r="D40" t="s">
         <v>70</v>
       </c>
@@ -2081,61 +2105,55 @@
         <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G40" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H40" s="5">
         <v>0.9</v>
       </c>
       <c r="I40">
         <f>G40*H40</f>
-        <v>810</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H41" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I41">
         <f>G41*H41</f>
-        <v>489.99999999999994</v>
-      </c>
-      <c r="J41" t="s">
-        <v>35</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -2147,22 +2165,85 @@
         <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="H42" s="5">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="I42">
         <f>G42*H42</f>
-        <v>37.5</v>
+        <v>489.99999999999994</v>
       </c>
       <c r="J42" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I43">
+        <f>G43*H43</f>
+        <v>360</v>
+      </c>
+      <c r="J43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>150</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I44">
+        <f>G44*H44</f>
+        <v>37.5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N42">
-    <sortCondition descending="1" ref="G1:G42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N44">
+    <sortCondition descending="1" ref="G1:G44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB3095-37C8-9044-9890-24BCC0D94B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA1EF-F807-9D4C-95E1-64182496D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
   <si>
     <t>Location</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Fa Jing (formerly TTO)</t>
   </si>
   <si>
-    <t>Taken over by Faa Jing</t>
-  </si>
-  <si>
     <t>Solaris</t>
   </si>
   <si>
@@ -537,10 +534,34 @@
     <t>Piros Lyuk</t>
   </si>
   <si>
-    <t>S/</t>
-  </si>
-  <si>
     <t>Self-sufficient terraforming camp</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Biological production cluster</t>
+  </si>
+  <si>
+    <t>Lockyer</t>
+  </si>
+  <si>
+    <t>HEL 7</t>
+  </si>
+  <si>
+    <t>Taken over by Fa Jing</t>
+  </si>
+  <si>
+    <t>S/Mare Australe</t>
+  </si>
+  <si>
+    <t>Torre Verde</t>
+  </si>
+  <si>
+    <t>Mars.doc</t>
+  </si>
+  <si>
+    <t>Party Zone for orbital workers</t>
   </si>
 </sst>
 </file>
@@ -928,11 +949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1115,7 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74428550</v>
+        <v>74518550</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1216,7 +1237,7 @@
       </c>
       <c r="L9" s="3">
         <f>SUM(I3:I125)</f>
-        <v>14058167.5</v>
+        <v>14076067.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1548,373 +1569,384 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="3">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="H21" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I21">
         <f>G21*H21</f>
-        <v>30000</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G22" s="3">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="H22" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
         <f>G22*H22</f>
-        <v>20000</v>
+        <v>30000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G23" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I23">
         <f>G23*H23</f>
-        <v>15000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>106</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="H24" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="I24">
         <f>G24*H24</f>
-        <v>13750.000000000002</v>
+        <v>15000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3">
         <v>25000</v>
       </c>
       <c r="H25" s="5">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I25">
         <f>G25*H25</f>
-        <v>16250</v>
-      </c>
-      <c r="J25" t="s">
-        <v>104</v>
+        <v>13750.000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="3">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="H26" s="5">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I26">
         <f>G26*H26</f>
-        <v>3000</v>
+        <v>16250</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G27" s="3">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I27">
         <f>G27*H27</f>
-        <v>2400</v>
+        <v>2000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="3">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="H28" s="5">
         <v>0.3</v>
       </c>
       <c r="I28">
         <f>G28*H28</f>
-        <v>2250</v>
+        <v>3000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="H29" s="5">
         <v>0.3</v>
       </c>
       <c r="I29">
         <f>G29*H29</f>
-        <v>1800</v>
-      </c>
-      <c r="M29" t="s">
-        <v>11</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G30" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="H30" s="5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I30">
         <f>G30*H30</f>
-        <v>4800</v>
-      </c>
-      <c r="M30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <f>COUNTIF(D13:D1012,"*D*")+COUNTIF(D13:D1012,"DD*")+COUNTIF(D13:D1012,"DDD")</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G31" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H31" s="5">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I31">
         <f>G31*H31</f>
-        <v>4950</v>
+        <v>1800</v>
       </c>
       <c r="M31" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31">
-        <f>COUNTIF(D13:D112,"*X*")+COUNTIF(D13:D112,"XX*")+COUNTIF(D13:D1012,"XXX")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H32" s="5">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I32">
         <f>G32*H32</f>
-        <v>1500</v>
+        <v>4800</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <f>COUNTIF(D15:D1014,"*D*")+COUNTIF(D15:D1014,"DD*")+COUNTIF(D15:D1014,"DDD")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="G33" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="H33" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I33">
         <f>G33*H33</f>
-        <v>1500</v>
+        <v>550</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N33">
-        <f>COUNTIF(D13:D112,"*F*")+COUNTIF(D13:D112,"FF*")+COUNTIF(D13:D1012,"FFF")</f>
+        <f>COUNTIF(D15:D114,"*X*")+COUNTIF(D15:D114,"XX*")+COUNTIF(D15:D1014,"XXX")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -1929,294 +1961,283 @@
         <f>G34*H34</f>
         <v>1500</v>
       </c>
-      <c r="J34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" t="s">
-        <v>15</v>
-      </c>
-      <c r="N34">
-        <f>COUNTIF(D13:D112,"*R*")+COUNTIF(D13:D112,"RR*")+COUNTIF(D13:D1012,"RRR")</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>114</v>
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3">
         <v>5000</v>
       </c>
       <c r="H35" s="5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I35">
         <f>G35*H35</f>
-        <v>4000</v>
+        <v>1500</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <f>COUNTIF(D15:D114,"*F*")+COUNTIF(D15:D114,"FF*")+COUNTIF(D15:D1014,"FFF")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G36" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H36" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I36">
         <f>G36*H36</f>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <f>COUNTIF(D15:D114,"*R*")+COUNTIF(D15:D114,"RR*")+COUNTIF(D15:D1014,"RRR")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="H37" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I37">
         <f>G37*H37</f>
-        <v>170</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G38" s="3">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H38" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I38">
         <f>G38*H38</f>
-        <v>600</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>156</v>
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="H39" s="5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I39">
         <f>G39*H39</f>
-        <v>800</v>
-      </c>
-      <c r="J39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39">
-        <f>SUM(N32:N38)</f>
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H40" s="5">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="I40">
         <f>G40*H40</f>
-        <v>900</v>
+        <v>600</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I41">
         <f>G41*H41</f>
-        <v>810</v>
+        <v>800</v>
+      </c>
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <f>SUM(N34:N40)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
         <f>G42*H42</f>
-        <v>489.99999999999994</v>
-      </c>
-      <c r="J42" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H43" s="5">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I43">
         <f>G43*H43</f>
-        <v>360</v>
-      </c>
-      <c r="J43" t="s">
-        <v>162</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
@@ -2228,22 +2249,85 @@
         <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="H44" s="5">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="I44">
         <f>G44*H44</f>
-        <v>37.5</v>
+        <v>489.99999999999994</v>
       </c>
       <c r="J44" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I45">
+        <f>G45*H45</f>
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>150</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I46">
+        <f>G46*H46</f>
+        <v>37.5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N44">
-    <sortCondition descending="1" ref="G1:G44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N46">
+    <sortCondition descending="1" ref="G1:G46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA1EF-F807-9D4C-95E1-64182496D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81B56F-C0A5-DC4E-9070-80D74E45C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>Location</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>Prosperity Group, IWA</t>
-  </si>
-  <si>
-    <t>PHO 1-3</t>
   </si>
   <si>
     <t>PRO 1-4</t>
@@ -402,9 +399,6 @@
     <t>TTO</t>
   </si>
   <si>
-    <t>ORB 1</t>
-  </si>
-  <si>
     <t>ORB 2</t>
   </si>
   <si>
@@ -562,6 +556,33 @@
   </si>
   <si>
     <t>Party Zone for orbital workers</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>RCF8</t>
+  </si>
+  <si>
+    <t>Adapt Pharma</t>
+  </si>
+  <si>
+    <t>Terraforming area</t>
+  </si>
+  <si>
+    <t>Mars-Sun L2</t>
+  </si>
+  <si>
+    <t>SW127, Pontes</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>PON 1-3</t>
+  </si>
+  <si>
+    <t>AreoSpace, Consortium</t>
   </si>
 </sst>
 </file>
@@ -949,11 +970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
@@ -1098,7 +1119,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1115,35 +1136,38 @@
       </c>
       <c r="L5" s="3">
         <f>SUM(G1:G124)</f>
-        <v>74518550</v>
+        <v>76727550</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H6" s="5">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="I6">
         <f>G6*H6</f>
-        <v>750000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1181,19 +1205,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1209,71 +1233,74 @@
         <v>300000</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="H9" s="5">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="I9">
         <f>G9*H9</f>
-        <v>87500</v>
-      </c>
-      <c r="L9" s="3">
-        <f>SUM(I3:I125)</f>
-        <v>14076067.5</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="H10" s="5">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
         <f>G10*H10</f>
-        <v>135000</v>
+        <v>87500</v>
+      </c>
+      <c r="L10" s="3">
+        <f>SUM(I1:I126)</f>
+        <v>28183767.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -1290,7 +1317,7 @@
         <v>90000</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -1299,13 +1326,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1321,21 +1348,21 @@
         <v>96000</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1351,21 +1378,21 @@
         <v>84000</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1381,7 +1408,7 @@
         <v>78000</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1416,16 +1443,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
       </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -1441,12 +1468,12 @@
         <v>72000</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1455,7 +1482,7 @@
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1471,7 +1498,7 @@
         <v>47500</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1509,7 +1536,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1518,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1534,21 +1561,21 @@
         <v>32000</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -1564,21 +1591,21 @@
         <v>56000</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -1596,16 +1623,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -1621,7 +1648,7 @@
         <v>30000</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1638,7 +1665,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>81</v>
@@ -1656,16 +1683,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
         <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -1681,7 +1708,7 @@
         <v>15000</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1692,7 +1719,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1716,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -1735,12 +1762,12 @@
         <v>16250</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -1749,10 +1776,10 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
@@ -1768,7 +1795,7 @@
         <v>2000</v>
       </c>
       <c r="J27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1776,10 +1803,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
@@ -1800,174 +1827,183 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="H29" s="5">
         <v>0.3</v>
       </c>
       <c r="I29">
         <f>G29*H29</f>
-        <v>2400</v>
+        <v>2700</v>
+      </c>
+      <c r="J29" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H30" s="5">
         <v>0.3</v>
       </c>
       <c r="I30">
         <f>G30*H30</f>
-        <v>2250</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="3">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="H31" s="5">
         <v>0.3</v>
       </c>
       <c r="I31">
         <f>G31*H31</f>
-        <v>1800</v>
-      </c>
-      <c r="M31" t="s">
-        <v>11</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3">
         <v>6000</v>
       </c>
       <c r="H32" s="5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I32">
         <f>G32*H32</f>
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="M32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32">
-        <f>COUNTIF(D15:D1014,"*D*")+COUNTIF(D15:D1014,"DD*")+COUNTIF(D15:D1014,"DDD")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="G33" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H33" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I33">
         <f>G33*H33</f>
-        <v>550</v>
-      </c>
-      <c r="J33" t="s">
-        <v>162</v>
+        <v>4800</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N33">
-        <f>COUNTIF(D15:D114,"*X*")+COUNTIF(D15:D114,"XX*")+COUNTIF(D15:D1014,"XXX")</f>
-        <v>0</v>
+        <f>COUNTIF(D16:D1015,"*D*")+COUNTIF(D16:D1015,"DD*")+COUNTIF(D16:D1015,"DDD")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="G34" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="H34" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I34">
         <f>G34*H34</f>
-        <v>1500</v>
+        <v>550</v>
+      </c>
+      <c r="J34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <f>COUNTIF(D16:D115,"*X*")+COUNTIF(D16:D115,"XX*")+COUNTIF(D16:D1015,"XXX")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -1982,23 +2018,13 @@
         <f>G35*H35</f>
         <v>1500</v>
       </c>
-      <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35">
-        <f>COUNTIF(D15:D114,"*F*")+COUNTIF(D15:D114,"FF*")+COUNTIF(D15:D1014,"FFF")</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -2017,317 +2043,348 @@
         <v>36</v>
       </c>
       <c r="M36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36">
-        <f>COUNTIF(D15:D114,"*R*")+COUNTIF(D15:D114,"RR*")+COUNTIF(D15:D1014,"RRR")</f>
-        <v>11</v>
+        <f>COUNTIF(D16:D115,"*F*")+COUNTIF(D16:D115,"FF*")+COUNTIF(D16:D1015,"FFF")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>114</v>
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G37" s="3">
         <v>5000</v>
       </c>
       <c r="H37" s="5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I37">
         <f>G37*H37</f>
-        <v>4000</v>
+        <v>1500</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37">
+        <f>COUNTIF(D16:D115,"*R*")+COUNTIF(D16:D115,"RR*")+COUNTIF(D16:D1015,"RRR")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G38" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H38" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I38">
         <f>G38*H38</f>
-        <v>300</v>
-      </c>
-      <c r="J38" t="s">
-        <v>157</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G39" s="3">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="H39" s="5">
         <v>0.1</v>
       </c>
       <c r="I39">
         <f>G39*H39</f>
-        <v>170</v>
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H40" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I40">
         <f>G40*H40</f>
-        <v>600</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H41" s="5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
         <f>G41*H41</f>
-        <v>800</v>
-      </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41">
-        <f>SUM(N34:N40)</f>
-        <v>11</v>
+        <v>600</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>1000</v>
       </c>
       <c r="H42" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I42">
         <f>G42*H42</f>
-        <v>200</v>
+        <v>800</v>
+      </c>
+      <c r="J42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <f>SUM(N35:N41)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
       <c r="D43" t="s">
         <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="5">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="I43">
         <f>G43*H43</f>
-        <v>810</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H44" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I44">
         <f>G44*H44</f>
-        <v>489.99999999999994</v>
-      </c>
-      <c r="J44" t="s">
-        <v>35</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H45" s="5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I45">
         <f>G45*H45</f>
-        <v>360</v>
+        <v>489.99999999999994</v>
       </c>
       <c r="J45" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G46" s="3">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H46" s="5">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I46">
         <f>G46*H46</f>
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>150</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I47">
+        <f>G47*H47</f>
         <v>37.5</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J47" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N46">
-    <sortCondition descending="1" ref="G1:G46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N47">
+    <sortCondition descending="1" ref="G1:G47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mars_habs.xlsx
+++ b/mars_habs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81B56F-C0A5-DC4E-9070-80D74E45C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876092E5-406A-8144-971F-2BE66E713394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,8 +38,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{65ADA203-6F67-CF4A-8F4A-6523ABA56E70}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A - air infra
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B - backup
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E - egocasting
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">M - morph services
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">N - nanofabber
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">S - spaceport
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">T - train station
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">W - large water
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="218">
   <si>
     <t>Location</t>
   </si>
@@ -417,9 +521,6 @@
     <t>Eos Chasma</t>
   </si>
   <si>
-    <t>Mellas TH</t>
-  </si>
-  <si>
     <t>Calaiâ</t>
   </si>
   <si>
@@ -546,9 +647,6 @@
     <t>Taken over by Fa Jing</t>
   </si>
   <si>
-    <t>S/Mare Australe</t>
-  </si>
-  <si>
     <t>Torre Verde</t>
   </si>
   <si>
@@ -583,13 +681,142 @@
   </si>
   <si>
     <t>AreoSpace, Consortium</t>
+  </si>
+  <si>
+    <t>Morfimallisto</t>
+  </si>
+  <si>
+    <t>Meizillar</t>
+  </si>
+  <si>
+    <t>Micrograv workers' suburbia</t>
+  </si>
+  <si>
+    <t>Experimental terraforming overlook</t>
+  </si>
+  <si>
+    <t>Sturmansichtt</t>
+  </si>
+  <si>
+    <t>Terraforming / Mine</t>
+  </si>
+  <si>
+    <t>Memphis on Mars</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BEMN</t>
+  </si>
+  <si>
+    <t>BMN</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ABMN</t>
+  </si>
+  <si>
+    <t>ABEMN</t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>ABEMNT</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>ABEMNST</t>
+  </si>
+  <si>
+    <t>ABEMNS</t>
+  </si>
+  <si>
+    <t>ABEMNSTW</t>
+  </si>
+  <si>
+    <t>Ascraeus City</t>
+  </si>
+  <si>
+    <t>Tharsis Map</t>
+  </si>
+  <si>
+    <t>THAR</t>
+  </si>
+  <si>
+    <t>Ascraeus Crater</t>
+  </si>
+  <si>
+    <t>ABEMNTW</t>
+  </si>
+  <si>
+    <t>SW124</t>
+  </si>
+  <si>
+    <t>BEMNS</t>
+  </si>
+  <si>
+    <t>S/Mare Australe, Darwin</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Melas TH</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>ABEMNSW</t>
+  </si>
+  <si>
+    <t>Dahl</t>
+  </si>
+  <si>
+    <t>Mercurials</t>
+  </si>
+  <si>
+    <t>BMNW</t>
+  </si>
+  <si>
+    <t>Uplift preserve; poor</t>
+  </si>
+  <si>
+    <t>SW125</t>
+  </si>
+  <si>
+    <t>Terraforming ecostation + camp</t>
+  </si>
+  <si>
+    <t>Dente de Rocha</t>
+  </si>
+  <si>
+    <t>RHUGO</t>
+  </si>
+  <si>
+    <t>BNM</t>
+  </si>
+  <si>
+    <t>Agritown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,6 +847,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -969,12 +1202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,16 +1216,17 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1011,23 +1245,26 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1043,21 +1280,24 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="2">
         <v>37000000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.4</v>
       </c>
-      <c r="I2">
-        <f>G2*H2</f>
+      <c r="J2">
+        <f>H2*I2</f>
         <v>14800000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1070,18 +1310,21 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="3">
         <v>13000000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>0.45</v>
       </c>
-      <c r="I3">
-        <f>G3*H3</f>
+      <c r="J3">
+        <f>H3*I3</f>
         <v>5850000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1094,21 +1337,24 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="3">
         <v>9100000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>0.4</v>
       </c>
-      <c r="I4">
-        <f>G4*H4</f>
+      <c r="J4">
+        <f>H4*I4</f>
         <v>3640000</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1124,53 +1370,59 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="3">
         <v>8500000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>0.25</v>
       </c>
-      <c r="I5">
-        <f>G5*H5</f>
+      <c r="J5">
+        <f>H5*I5</f>
         <v>2125000</v>
       </c>
-      <c r="L5" s="3">
-        <f>SUM(G1:G124)</f>
-        <v>76727550</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="3">
+        <f>SUM(H1:H124)</f>
+        <v>76872450</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" t="s">
-        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="3">
         <v>5000000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>0.03</v>
       </c>
-      <c r="I6">
-        <f>G6*H6</f>
+      <c r="J6">
+        <f>H6*I6</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1186,57 +1438,63 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="3">
         <v>1000000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>0.35</v>
       </c>
-      <c r="I7">
-        <f>G7*H7</f>
+      <c r="J7">
+        <f>H7*I7</f>
         <v>350000</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
         <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="3">
         <v>600000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <f>G8*H8</f>
+      <c r="J8">
+        <f>H8*I8</f>
         <v>300000</v>
       </c>
-      <c r="J8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1247,23 +1505,26 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="3">
         <v>500000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>0.08</v>
       </c>
-      <c r="I9">
-        <f>G9*H9</f>
+      <c r="J9">
+        <f>H9*I9</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1276,27 +1537,30 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="3">
         <v>350000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>0.25</v>
       </c>
-      <c r="I10">
-        <f>G10*H10</f>
+      <c r="J10">
+        <f>H10*I10</f>
         <v>87500</v>
       </c>
-      <c r="L10" s="3">
-        <f>SUM(I1:I126)</f>
-        <v>28183767.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <f>SUM(J1:J126)</f>
+        <v>28276625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
@@ -1306,82 +1570,91 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="3">
         <v>300000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>0.3</v>
       </c>
-      <c r="I11">
-        <f>G11*H11</f>
+      <c r="J11">
+        <f>H11*I11</f>
         <v>90000</v>
       </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11"/>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="3">
         <v>160000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>0.6</v>
       </c>
-      <c r="I12">
-        <f>G12*H12</f>
+      <c r="J12">
+        <f>H12*I12</f>
         <v>96000</v>
       </c>
-      <c r="J12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>129</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="3">
         <v>140000</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>0.6</v>
       </c>
-      <c r="I13">
-        <f>G13*H13</f>
+      <c r="J13">
+        <f>H13*I13</f>
         <v>84000</v>
       </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1397,21 +1670,24 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="3">
         <v>130000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>0.6</v>
       </c>
-      <c r="I14">
-        <f>G14*H14</f>
+      <c r="J14">
+        <f>H14*I14</f>
         <v>78000</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1427,29 +1703,32 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="3">
         <v>120000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>0.7</v>
       </c>
-      <c r="I15">
-        <f>G15*H15</f>
+      <c r="J15">
+        <f>H15*I15</f>
         <v>84000</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -1457,937 +1736,1238 @@
       <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="3">
         <v>120000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>0.6</v>
       </c>
-      <c r="I16">
-        <f>G16*H16</f>
+      <c r="J16">
+        <f>H16*I16</f>
         <v>72000</v>
       </c>
-      <c r="J16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J17">
+        <f>H17*I17</f>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>117</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="3">
         <v>95000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I18" s="5">
         <v>0.5</v>
       </c>
-      <c r="I17">
-        <f>G17*H17</f>
+      <c r="J18">
+        <f>H18*I18</f>
         <v>47500</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="3">
         <v>90000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I19" s="5">
         <v>0.6</v>
       </c>
-      <c r="I18">
-        <f>G18*H18</f>
+      <c r="J19">
+        <f>H19*I19</f>
         <v>54000</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="3">
         <v>80000</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I20" s="5">
         <v>0.4</v>
       </c>
-      <c r="I19">
-        <f>G19*H19</f>
+      <c r="J20">
+        <f>H20*I20</f>
         <v>32000</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
         <v>139</v>
       </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="I20">
-        <f>G20*H20</f>
-        <v>56000</v>
-      </c>
-      <c r="J20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I21">
-        <f>G21*H21</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J21">
+        <f>H21*I21</f>
+        <v>56000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <f>H22*I22</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I23" s="5">
         <v>0.5</v>
       </c>
-      <c r="I22">
-        <f>G22*H22</f>
+      <c r="J23">
+        <f>H23*I23</f>
         <v>30000</v>
       </c>
-      <c r="J22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I24" s="5">
         <v>0.4</v>
       </c>
-      <c r="I23">
-        <f>G23*H23</f>
+      <c r="J24">
+        <f>H24*I24</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I25" s="5">
         <v>0.5</v>
       </c>
-      <c r="I24">
-        <f>G24*H24</f>
+      <c r="J25">
+        <f>H25*I25</f>
         <v>15000</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="3">
         <v>25000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I26" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I25">
-        <f>G25*H25</f>
+      <c r="J26">
+        <f>H26*I26</f>
         <v>13750.000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="3">
         <v>25000</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I27" s="5">
         <v>0.65</v>
       </c>
-      <c r="I26">
-        <f>G26*H26</f>
+      <c r="J27">
+        <f>H27*I27</f>
         <v>16250</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <f>H28*I28</f>
+        <v>2000</v>
+      </c>
+      <c r="K28" t="s">
         <v>165</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="3">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="3">
         <v>20000</v>
       </c>
-      <c r="H27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I27">
-        <f>G27*H27</f>
-        <v>2000</v>
-      </c>
-      <c r="J27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="I29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J29">
+        <f>H29*I29</f>
+        <v>6000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I28">
-        <f>G28*H28</f>
-        <v>3000</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I29">
-        <f>G29*H29</f>
-        <v>2700</v>
-      </c>
-      <c r="J29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="5">
         <v>0.3</v>
       </c>
-      <c r="I30">
-        <f>G30*H30</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f>H30*I30</f>
+        <v>3000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H31" s="5">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I31" s="5">
         <v>0.3</v>
       </c>
-      <c r="I31">
-        <f>G31*H31</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f>H31*I31</f>
+        <v>2700</v>
+      </c>
+      <c r="K31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J32">
+        <f>H32*I32</f>
+        <v>2400</v>
+      </c>
+      <c r="K32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J33">
+        <f>H33*I33</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I34" s="5">
         <v>0.3</v>
       </c>
-      <c r="I32">
-        <f>G32*H32</f>
+      <c r="J34">
+        <f>H34*I34</f>
         <v>1800</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>52</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>100</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G35" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I35" s="5">
         <v>0.8</v>
       </c>
-      <c r="I33">
-        <f>G33*H33</f>
+      <c r="J35">
+        <f>H35*I35</f>
         <v>4800</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N35" t="s">
         <v>12</v>
       </c>
-      <c r="N33">
-        <f>COUNTIF(D16:D1015,"*D*")+COUNTIF(D16:D1015,"DD*")+COUNTIF(D16:D1015,"DDD")</f>
+      <c r="O35">
+        <f>COUNTIF(D18:D1017,"*D*")+COUNTIF(D18:D1017,"DD*")+COUNTIF(D18:D1017,"DDD")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>115</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <f>H36*I36</f>
+        <v>550</v>
+      </c>
+      <c r="K36" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I34">
-        <f>G34*H34</f>
-        <v>550</v>
-      </c>
-      <c r="J34" t="s">
-        <v>160</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N36" t="s">
         <v>13</v>
       </c>
-      <c r="N34">
-        <f>COUNTIF(D16:D115,"*X*")+COUNTIF(D16:D115,"XX*")+COUNTIF(D16:D1015,"XXX")</f>
+      <c r="O36">
+        <f>COUNTIF(D18:D117,"*X*")+COUNTIF(D18:D117,"XX*")+COUNTIF(D18:D1017,"XXX")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>83</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I35">
-        <f>G35*H35</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="I36">
-        <f>G36*H36</f>
-        <v>1500</v>
-      </c>
-      <c r="J36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36">
-        <f>COUNTIF(D16:D115,"*F*")+COUNTIF(D16:D115,"FF*")+COUNTIF(D16:D1015,"FFF")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>5000</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>0.3</v>
       </c>
-      <c r="I37">
-        <f>G37*H37</f>
+      <c r="J37">
+        <f>H37*I37</f>
         <v>1500</v>
       </c>
-      <c r="J37" t="s">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J38">
+        <f>H38*I38</f>
+        <v>1500</v>
+      </c>
+      <c r="K38" t="s">
         <v>36</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38">
+        <f>COUNTIF(D18:D117,"*F*")+COUNTIF(D18:D117,"FF*")+COUNTIF(D18:D1017,"FFF")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J39">
+        <f>H39*I39</f>
+        <v>1500</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
         <v>15</v>
       </c>
-      <c r="N37">
-        <f>COUNTIF(D16:D115,"*R*")+COUNTIF(D16:D115,"RR*")+COUNTIF(D16:D1015,"RRR")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="O39">
+        <f>COUNTIF(D18:D117,"*R*")+COUNTIF(D18:D117,"RR*")+COUNTIF(D18:D1017,"RRR")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>49</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>113</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="3">
         <v>5000</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I40" s="5">
         <v>0.8</v>
       </c>
-      <c r="I38">
-        <f>G38*H38</f>
+      <c r="J40">
+        <f>H40*I40</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
         <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I39">
-        <f>G39*H39</f>
-        <v>300</v>
-      </c>
-      <c r="J39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I40">
-        <f>G40*H40</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>153</v>
       </c>
       <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <f>H41*I41</f>
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
         <v>151</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <f>H42*I42</f>
+        <v>1000</v>
+      </c>
+      <c r="K42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J43">
+        <f>H43*I43</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
         <v>152</v>
       </c>
-      <c r="F41" t="s">
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I44" s="5">
         <v>0.4</v>
       </c>
-      <c r="I41">
-        <f>G41*H41</f>
+      <c r="J44">
+        <f>H44*I44</f>
         <v>600</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I42">
-        <f>G42*H42</f>
-        <v>800</v>
-      </c>
-      <c r="J42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42">
-        <f>SUM(N35:N41)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I43">
-        <f>G43*H43</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>900</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I44">
-        <f>G44*H44</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>100</v>
       </c>
       <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J45">
+        <f>H45*I45</f>
+        <v>900</v>
+      </c>
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J46">
+        <f>H46*I46</f>
+        <v>720</v>
+      </c>
+      <c r="K46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J47">
+        <f>H47*I47</f>
+        <v>800</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <f>SUM(O40:O46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J48">
+        <f>H48*I48</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="3">
+        <v>900</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J49">
+        <f>H49*I49</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I50" s="5">
         <v>0.7</v>
       </c>
-      <c r="I45">
-        <f>G45*H45</f>
+      <c r="J50">
+        <f>H50*I50</f>
         <v>489.99999999999994</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="3">
+        <v>600</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J51">
+        <f>H51*I51</f>
+        <v>360</v>
+      </c>
+      <c r="K51" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J52">
+        <f>H52*I52</f>
+        <v>140</v>
+      </c>
+      <c r="K52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
         <v>38</v>
       </c>
-      <c r="D46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I46">
-        <f>G46*H46</f>
-        <v>360</v>
-      </c>
-      <c r="J46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D53" t="s">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E53" t="s">
         <v>100</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F53" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G53" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="3">
         <v>150</v>
       </c>
-      <c r="H47" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I47">
-        <f>G47*H47</f>
-        <v>37.5</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I53" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J53">
+        <f>H53*I53</f>
+        <v>135</v>
+      </c>
+      <c r="K53" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N47">
-    <sortCondition descending="1" ref="G1:G47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:O53">
+    <sortCondition descending="1" ref="H1:H53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
